--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H2">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J2">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N2">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O2">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P2">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q2">
-        <v>2.619481481144099</v>
+        <v>5.311725778753778</v>
       </c>
       <c r="R2">
-        <v>2.619481481144099</v>
+        <v>47.80553200878401</v>
       </c>
       <c r="S2">
-        <v>0.02695639034891786</v>
+        <v>0.04336538783949431</v>
       </c>
       <c r="T2">
-        <v>0.02695639034891786</v>
+        <v>0.04336538783949433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H3">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J3">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N3">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q3">
-        <v>3.205478877621484</v>
+        <v>6.196417749946112</v>
       </c>
       <c r="R3">
-        <v>3.205478877621484</v>
+        <v>55.767759749515</v>
       </c>
       <c r="S3">
-        <v>0.03298673439853285</v>
+        <v>0.05058808947117444</v>
       </c>
       <c r="T3">
-        <v>0.03298673439853285</v>
+        <v>0.05058808947117444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H4">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J4">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N4">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q4">
-        <v>1.174656247280101</v>
+        <v>2.605982586303556</v>
       </c>
       <c r="R4">
-        <v>1.174656247280101</v>
+        <v>23.453843276732</v>
       </c>
       <c r="S4">
-        <v>0.01208807642100506</v>
+        <v>0.02127546681909775</v>
       </c>
       <c r="T4">
-        <v>0.01208807642100506</v>
+        <v>0.02127546681909775</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.767920730155892</v>
+        <v>1.417859666666667</v>
       </c>
       <c r="H5">
-        <v>0.767920730155892</v>
+        <v>4.253579</v>
       </c>
       <c r="I5">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="J5">
-        <v>0.09130957870156291</v>
+        <v>0.1472651073415806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N5">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q5">
-        <v>1.873372223833592</v>
+        <v>3.924035330074445</v>
       </c>
       <c r="R5">
-        <v>1.873372223833592</v>
+        <v>35.31631797067001</v>
       </c>
       <c r="S5">
-        <v>0.01927837753310715</v>
+        <v>0.0320361632118141</v>
       </c>
       <c r="T5">
-        <v>0.01927837753310715</v>
+        <v>0.03203616321181411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J6">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N6">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O6">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P6">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q6">
-        <v>20.65420905839659</v>
+        <v>23.18918664394311</v>
       </c>
       <c r="R6">
-        <v>20.65420905839659</v>
+        <v>208.702679795488</v>
       </c>
       <c r="S6">
-        <v>0.2125469966991784</v>
+        <v>0.1893185217729646</v>
       </c>
       <c r="T6">
-        <v>0.2125469966991784</v>
+        <v>0.1893185217729647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J7">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N7">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q7">
-        <v>25.2747085051931</v>
+        <v>27.05145064191445</v>
       </c>
       <c r="R7">
-        <v>25.2747085051931</v>
+        <v>243.46305577723</v>
       </c>
       <c r="S7">
-        <v>0.2600953331128437</v>
+        <v>0.2208503784965319</v>
       </c>
       <c r="T7">
-        <v>0.2600953331128437</v>
+        <v>0.2208503784965319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J8">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N8">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q8">
-        <v>9.26198405207972</v>
+        <v>11.37683289795822</v>
       </c>
       <c r="R8">
-        <v>9.26198405207972</v>
+        <v>102.391496081624</v>
       </c>
       <c r="S8">
-        <v>0.09531262553696919</v>
+        <v>0.0928814459847412</v>
       </c>
       <c r="T8">
-        <v>0.09531262553696919</v>
+        <v>0.0928814459847412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.05493698470008</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
-        <v>6.05493698470008</v>
+        <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="J9">
-        <v>0.7199620005377894</v>
+        <v>0.6429093297593833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N9">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P9">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q9">
-        <v>14.77125218627336</v>
+        <v>17.13100251343778</v>
       </c>
       <c r="R9">
-        <v>14.77125218627336</v>
+        <v>154.17902262094</v>
       </c>
       <c r="S9">
-        <v>0.1520070451887982</v>
+        <v>0.1398589835051456</v>
       </c>
       <c r="T9">
-        <v>0.1520070451887982</v>
+        <v>0.1398589835051456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H10">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J10">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N10">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O10">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P10">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q10">
-        <v>2.553148775300398</v>
+        <v>3.791683826247111</v>
       </c>
       <c r="R10">
-        <v>2.553148775300398</v>
+        <v>34.125154436224</v>
       </c>
       <c r="S10">
-        <v>0.0262737780363308</v>
+        <v>0.03095563410815258</v>
       </c>
       <c r="T10">
-        <v>0.0262737780363308</v>
+        <v>0.03095563410815258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H11">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I11">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J11">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N11">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P11">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q11">
-        <v>3.124307054492353</v>
+        <v>4.423205930004445</v>
       </c>
       <c r="R11">
-        <v>3.124307054492353</v>
+        <v>39.80885337004</v>
       </c>
       <c r="S11">
-        <v>0.03215141665899056</v>
+        <v>0.03611143508496344</v>
       </c>
       <c r="T11">
-        <v>0.03215141665899056</v>
+        <v>0.03611143508496344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H12">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I12">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J12">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N12">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P12">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q12">
-        <v>1.144910617131853</v>
+        <v>1.860235719150222</v>
       </c>
       <c r="R12">
-        <v>1.144910617131853</v>
+        <v>16.742121472352</v>
       </c>
       <c r="S12">
-        <v>0.01178197201705237</v>
+        <v>0.01518712501245811</v>
       </c>
       <c r="T12">
-        <v>0.01178197201705237</v>
+        <v>0.01518712501245811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.748474797717972</v>
+        <v>1.012114666666667</v>
       </c>
       <c r="H13">
-        <v>0.748474797717972</v>
+        <v>3.036344</v>
       </c>
       <c r="I13">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="J13">
-        <v>0.08899736100950362</v>
+        <v>0.105122656728831</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N13">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O13">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P13">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q13">
-        <v>1.825933122028971</v>
+        <v>2.801104935457778</v>
       </c>
       <c r="R13">
-        <v>1.825933122028971</v>
+        <v>25.20994441912</v>
       </c>
       <c r="S13">
-        <v>0.01879019429712989</v>
+        <v>0.02286846252325688</v>
       </c>
       <c r="T13">
-        <v>0.01879019429712989</v>
+        <v>0.02286846252325688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H14">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I14">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J14">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N14">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O14">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P14">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q14">
-        <v>2.861076218157228</v>
+        <v>3.776543784568889</v>
       </c>
       <c r="R14">
-        <v>2.861076218157228</v>
+        <v>33.98889406112</v>
       </c>
       <c r="S14">
-        <v>0.02944257781924333</v>
+        <v>0.03083202950079345</v>
       </c>
       <c r="T14">
-        <v>0.02944257781924333</v>
+        <v>0.03083202950079346</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H15">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I15">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J15">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N15">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O15">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P15">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q15">
-        <v>3.501120145565038</v>
+        <v>4.405544245855556</v>
       </c>
       <c r="R15">
-        <v>3.501120145565038</v>
+        <v>39.6498982127</v>
       </c>
       <c r="S15">
-        <v>0.03602910040848636</v>
+        <v>0.03596724357077068</v>
       </c>
       <c r="T15">
-        <v>0.03602910040848636</v>
+        <v>0.03596724357077068</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H16">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I16">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J16">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N16">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O16">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P16">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q16">
-        <v>1.282994775032744</v>
+        <v>1.852807872417778</v>
       </c>
       <c r="R16">
-        <v>1.282994775032744</v>
+        <v>16.67527085176</v>
       </c>
       <c r="S16">
-        <v>0.0132029595247603</v>
+        <v>0.01512648343045981</v>
       </c>
       <c r="T16">
-        <v>0.0132029595247603</v>
+        <v>0.01512648343045981</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.838746047373982</v>
+        <v>1.008073333333333</v>
       </c>
       <c r="H17">
-        <v>0.838746047373982</v>
+        <v>3.02422</v>
       </c>
       <c r="I17">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="J17">
-        <v>0.09973105975114402</v>
+        <v>0.1047029061702051</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N17">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O17">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P17">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q17">
-        <v>2.046153315436156</v>
+        <v>2.789920235622223</v>
       </c>
       <c r="R17">
-        <v>2.046153315436156</v>
+        <v>25.1092821206</v>
       </c>
       <c r="S17">
-        <v>0.02105642199865404</v>
+        <v>0.02277714966818118</v>
       </c>
       <c r="T17">
-        <v>0.02105642199865404</v>
+        <v>0.02277714966818118</v>
       </c>
     </row>
   </sheetData>
